--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801725.667897394</v>
+        <v>2799838.086380993</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580466.8730595222</v>
+        <v>577287.1763790108</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>47.13488425441544</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>263.8291486820131</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.2699779972374</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>107.2625634017004</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>289.5119536303307</v>
+        <v>408.2141978756888</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>160.0179384138202</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.723491603805</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>122.593546181608</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.3344910485235</v>
       </c>
       <c r="C13" t="n">
-        <v>91.29932184082467</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>115.5269768002172</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>140.3362936071832</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.6841640381755</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151919</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>58.70811713027396</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214863</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>79.29281606331627</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>207.0920728594994</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700711</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965558</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>91.2307060180124</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.21779139437447</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897935</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.21598883571519</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523561</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550465</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298325</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700206</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
-        <v>16.80134787438218</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>145.8325623143357</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522961</v>
+        <v>111.7000900522973</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1744.232431292459</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C2" t="n">
-        <v>1744.232431292459</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="D2" t="n">
-        <v>1385.966732685709</v>
+        <v>1149.386784289576</v>
       </c>
       <c r="E2" t="n">
-        <v>1000.178480087464</v>
+        <v>1149.386784289576</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>738.4008794999686</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>320.4370713981555</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>2130.832271356581</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005474</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005474</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D4" t="n">
-        <v>323.3278565882116</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>207.9455298913113</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>722.2873163082934</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="C5" t="n">
-        <v>353.3247993678817</v>
+        <v>1370.74598339128</v>
       </c>
       <c r="D5" t="n">
-        <v>353.3247993678817</v>
+        <v>1012.480284784529</v>
       </c>
       <c r="E5" t="n">
-        <v>353.3247993678817</v>
+        <v>626.6920321862851</v>
       </c>
       <c r="F5" t="n">
-        <v>346.3792986186782</v>
+        <v>619.7465314370817</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>722.2873163082934</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,19 +4647,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>808.0839286340174</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>808.0839286340174</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>808.0839286340174</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>397.0980238444099</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4838,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>604.2971193765273</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>604.2971193765273</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5042,25 +5042,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5121,16 +5121,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061688</v>
+        <v>802.0403666355636</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454149</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N12" t="n">
-        <v>2234.893232091767</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0384892293823</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C13" t="n">
-        <v>523.8169520164281</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>523.8169520164281</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333287</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273998</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273998</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X13" t="n">
-        <v>616.0384892293823</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="Y13" t="n">
-        <v>616.0384892293823</v>
+        <v>967.1285778917506</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,40 +5273,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1426.94561082251</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.466266460128</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201012</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201012</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201012</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201012</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609661</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550792</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181186</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201012</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201012</v>
+        <v>825.3747459653033</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5580,31 +5580,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>381.3300194168668</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028586</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028586</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028586</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028581</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028581</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5774,28 +5774,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,64 +5975,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028581</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,28 +6215,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,28 +6248,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>496.6650364395583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>327.7288535116513</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>327.7288535116513</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>327.7288535116513</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>327.7288535116513</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6388,46 +6388,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1089.812348494162</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>496.6650364395583</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>496.6650364395583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>496.6650364395583</v>
       </c>
     </row>
     <row r="29">
@@ -6437,58 +6437,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>629.3975440735812</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508384</v>
+        <v>638.4603630227176</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043024</v>
+        <v>525.2850453761812</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733376</v>
+        <v>430.929271245216</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723154</v>
+        <v>338.7770429441933</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557759</v>
+        <v>247.6479607276541</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569675</v>
+        <v>247.6479607276541</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933508</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667501</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962061</v>
+        <v>997.6688721962041</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1791.966918252995</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1623.942368323871</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1390.5745948188</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1191.650971894284</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.365675278513</v>
+        <v>957.9946671386936</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618664</v>
+        <v>785.7659815220467</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.1052757997072</v>
+        <v>638.4603630227176</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>629.3975440735812</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>334.2881267578673</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L36" t="n">
-        <v>334.2881267578673</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,37 +7108,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7239,22 +7239,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
         <v>1288.32563221405</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254954</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.32563221405</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1288.32563221405</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,7 +7728,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
         <v>1288.32563221405</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10923,7 +10923,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11145,22 +11145,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.49748913341377</v>
       </c>
       <c r="C13" t="n">
-        <v>75.94749925780316</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>29.894071222714</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>81.21126745120606</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.14781614376184</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>227.814881206317</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>14.7411341369029</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>87.20075240006145</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.45548819888984</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523599</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>214.5183938336516</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>17.54883440920227</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>-5.135891839601732e-13</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813644.2746905405</v>
+        <v>813644.2746905403</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179044</v>
+        <v>610233.2060179051</v>
       </c>
       <c r="L2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284543</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086711</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284584</v>
+        <v>44162.60530284543</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758696</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905757959</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759301</v>
+        <v>787.7936905758412</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757998</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758412</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758515</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477246</v>
+        <v>18952.41620477228</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.5809318963</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,13 +26497,13 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603602</v>
+        <v>-196104.7690603606</v>
       </c>
       <c r="C6" t="n">
         <v>393863.110154184</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541843</v>
+        <v>393863.1101541844</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.5665096258</v>
+        <v>-31489.0256355982</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672705</v>
+        <v>493671.0108412986</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.4699672703</v>
+        <v>493671.0108412981</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672699</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672702</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="J6" t="n">
-        <v>317345.2507746776</v>
+        <v>317247.7916487054</v>
       </c>
       <c r="K6" t="n">
-        <v>450489.9759800636</v>
+        <v>450471.4822421303</v>
       </c>
       <c r="L6" t="n">
-        <v>484516.7338454238</v>
+        <v>484516.7338454235</v>
       </c>
       <c r="M6" t="n">
-        <v>360058.6254124539</v>
+        <v>360058.6254124536</v>
       </c>
       <c r="N6" t="n">
-        <v>494859.6406462905</v>
+        <v>494859.6406462909</v>
       </c>
       <c r="O6" t="n">
-        <v>494859.6406462906</v>
+        <v>494859.6406462909</v>
       </c>
       <c r="P6" t="n">
-        <v>450697.0353434447</v>
+        <v>450697.0353434452</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26799,13 +26799,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108389</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855679</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>359.741161487296</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60.09362408234409</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>25.16398464933175</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>27.70305839063784</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>124.2722163904643</v>
+        <v>5.569972145106192</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>65.01716704426411</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.06067841699002</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>163.929452154983</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855678</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31601,7 +31601,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034983</v>
@@ -31841,19 +31841,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>353.0329386354457</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>141.3402618185949</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32081,16 +32081,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>399.4910404804381</v>
+        <v>380.6314029223775</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>54.69678998811293</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>425.8974584957641</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,28 +32540,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318321</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>48.48571443651653</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32813,10 +32813,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>216.4869287318321</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>213.9849829127209</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>213.9849829127208</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>112.8418941815596</v>
+        <v>216.4869287318321</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,25 +33962,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
         <v>224.6051223555648</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>273.8226464915811</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,25 +34436,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
         <v>224.6051223555648</v>
@@ -34472,10 +34472,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>585.3189041590307</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>392.60633665088</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>723.0620703084197</v>
+        <v>704.2024327503591</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>286.9827555116979</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>749.4684883237456</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>175.1095124747361</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>537.5560127407025</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412232</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>537.5560127407024</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>239.4656922197792</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>572.6057846157851</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>525.0887213238661</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>572.6057846157851</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
